--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewEmp" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>testId</t>
   </si>
@@ -296,6 +296,9 @@
     <t>Xavier_Hansen@zoho.com</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>YEVHZ7183I</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
     <t>PERMANENT</t>
   </si>
   <si>
+    <t>no_of_education_details</t>
+  </si>
+  <si>
     <t>editemp_001</t>
   </si>
   <si>
@@ -326,19 +332,34 @@
     <t>EditEmp</t>
   </si>
   <si>
+    <t>educationDetails</t>
+  </si>
+  <si>
+    <t>803418901109</t>
+  </si>
+  <si>
+    <t>B.Sc.,XII,X</t>
+  </si>
+  <si>
+    <t>2015,2012,2010</t>
+  </si>
+  <si>
+    <t>MU,MH,MH</t>
+  </si>
+  <si>
+    <t>75,80,91</t>
+  </si>
+  <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
+    <t>editemp_003</t>
+  </si>
+  <si>
+    <t>employmentDetails</t>
+  </si>
+  <si>
     <t>personalDetails</t>
-  </si>
-  <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
-    <t>educationDetails</t>
-  </si>
-  <si>
-    <t>editemp_003</t>
-  </si>
-  <si>
-    <t>employmentDetails</t>
   </si>
 </sst>
 </file>
@@ -346,12 +367,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,28 +397,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="8.25"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,19 +432,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,8 +455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,37 +472,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +508,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,10 +537,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -534,6 +561,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,169 +585,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,17 +758,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -776,37 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,164 +841,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1320,7 +1354,7 @@
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14" style="9" customWidth="1"/>
     <col min="12" max="12" width="13.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="95" customWidth="1"/>
@@ -1394,7 +1428,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1543,10 +1577,10 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="9">
         <v>803418901107</v>
       </c>
       <c r="L2" t="s">
@@ -1591,16 +1625,16 @@
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="7" t="s">
         <v>68</v>
       </c>
       <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AG2" t="s">
@@ -1686,10 +1720,10 @@
       <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="9">
         <v>803418901108</v>
       </c>
       <c r="L3" t="s">
@@ -1737,16 +1771,16 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="7" t="s">
         <v>86</v>
       </c>
       <c r="AD3" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AG3" t="s">
@@ -1835,20 +1869,20 @@
       <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="4">
-        <v>803418901109</v>
+      <c r="K4" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4">
         <v>15011998</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
         <v>63</v>
@@ -1863,10 +1897,10 @@
         <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X4">
         <v>2017</v>
@@ -1880,16 +1914,16 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AC4" s="8" t="s">
-        <v>98</v>
+      <c r="AC4" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AG4" t="s">
@@ -1964,13 +1998,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -1982,7 +2016,7 @@
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="74.1428571428571" customWidth="1"/>
@@ -1994,38 +2028,39 @@
     <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
     <col min="21" max="21" width="22.1428571428571" customWidth="1"/>
     <col min="22" max="22" width="17.7142857142857" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="13.4285714285714" customWidth="1"/>
-    <col min="25" max="25" width="17.2857142857143" customWidth="1"/>
-    <col min="26" max="26" width="11.7142857142857" customWidth="1"/>
-    <col min="27" max="27" width="17.5714285714286" customWidth="1"/>
-    <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="21.1428571428571" customWidth="1"/>
-    <col min="30" max="30" width="10.5714285714286" customWidth="1"/>
-    <col min="31" max="31" width="21.8571428571429" customWidth="1"/>
-    <col min="32" max="32" width="15.7142857142857" customWidth="1"/>
-    <col min="33" max="33" width="8.71428571428571" customWidth="1"/>
-    <col min="34" max="34" width="12.1428571428571" customWidth="1"/>
-    <col min="35" max="35" width="9.14285714285714" customWidth="1"/>
-    <col min="36" max="36" width="13.1428571428571" customWidth="1"/>
-    <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="7" customWidth="1"/>
-    <col min="39" max="39" width="8.42857142857143" customWidth="1"/>
-    <col min="40" max="40" width="18.2857142857143" customWidth="1"/>
-    <col min="41" max="41" width="7.57142857142857" customWidth="1"/>
-    <col min="42" max="42" width="12.4285714285714" customWidth="1"/>
-    <col min="43" max="43" width="6.57142857142857" customWidth="1"/>
-    <col min="44" max="44" width="22.4285714285714" customWidth="1"/>
-    <col min="45" max="45" width="19.5714285714286" customWidth="1"/>
-    <col min="46" max="46" width="18.8571428571429" customWidth="1"/>
-    <col min="47" max="47" width="21.5714285714286" customWidth="1"/>
-    <col min="48" max="48" width="21.4285714285714" customWidth="1"/>
-    <col min="49" max="49" width="13.1428571428571" customWidth="1"/>
-    <col min="50" max="50" width="5.57142857142857" customWidth="1"/>
-    <col min="51" max="51" width="14.7142857142857" customWidth="1"/>
+    <col min="23" max="23" width="25.2857142857143" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.2857142857143" customWidth="1"/>
+    <col min="27" max="27" width="11.7142857142857" customWidth="1"/>
+    <col min="28" max="28" width="17.5714285714286" customWidth="1"/>
+    <col min="29" max="29" width="5" customWidth="1"/>
+    <col min="30" max="30" width="21.1428571428571" customWidth="1"/>
+    <col min="31" max="31" width="10.5714285714286" customWidth="1"/>
+    <col min="32" max="32" width="21.8571428571429" customWidth="1"/>
+    <col min="33" max="33" width="15.7142857142857" customWidth="1"/>
+    <col min="34" max="34" width="8.71428571428571" customWidth="1"/>
+    <col min="35" max="35" width="12.1428571428571" customWidth="1"/>
+    <col min="36" max="36" width="9.14285714285714" customWidth="1"/>
+    <col min="37" max="37" width="13.1428571428571" customWidth="1"/>
+    <col min="38" max="38" width="9" customWidth="1"/>
+    <col min="39" max="39" width="7" customWidth="1"/>
+    <col min="40" max="40" width="8.42857142857143" customWidth="1"/>
+    <col min="41" max="41" width="18.2857142857143" customWidth="1"/>
+    <col min="42" max="42" width="7.57142857142857" customWidth="1"/>
+    <col min="43" max="43" width="12.4285714285714" customWidth="1"/>
+    <col min="44" max="44" width="6.57142857142857" customWidth="1"/>
+    <col min="45" max="45" width="22.4285714285714" customWidth="1"/>
+    <col min="46" max="46" width="19.5714285714286" customWidth="1"/>
+    <col min="47" max="47" width="18.8571428571429" customWidth="1"/>
+    <col min="48" max="48" width="21.5714285714286" customWidth="1"/>
+    <col min="49" max="49" width="21.4285714285714" customWidth="1"/>
+    <col min="50" max="50" width="13.1428571428571" customWidth="1"/>
+    <col min="51" max="51" width="5.57142857142857" customWidth="1"/>
+    <col min="52" max="52" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:51">
+    <row r="1" s="1" customFormat="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2091,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2093,105 +2128,108 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -2208,11 +2246,11 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="4">
-        <v>803418901107</v>
+      <c r="K2" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -2241,44 +2279,44 @@
       <c r="U2" t="s">
         <v>65</v>
       </c>
-      <c r="W2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2">
-        <v>2015</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2">
-        <v>75</v>
-      </c>
-      <c r="AA2">
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2">
         <v>3</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ2">
-        <v>1234</v>
       </c>
       <c r="AK2">
         <v>1234</v>
@@ -2287,54 +2325,57 @@
         <v>1234</v>
       </c>
       <c r="AM2">
-        <v>40000</v>
+        <v>1234</v>
       </c>
       <c r="AN2">
         <v>40000</v>
       </c>
       <c r="AO2">
+        <v>40000</v>
+      </c>
+      <c r="AP2">
         <v>100000</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>30000</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>15000</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>19200</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>15000</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>6000</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>6200</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>5000</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>3600</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2348,27 +2389,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="Isabel@outlook.com"/>
+    <hyperlink ref="AD2" r:id="rId1" display="Isabel@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>testId</t>
   </si>
@@ -332,31 +332,37 @@
     <t>EditEmp</t>
   </si>
   <si>
+    <t>employmentDetails</t>
+  </si>
+  <si>
+    <t>803418901109</t>
+  </si>
+  <si>
+    <t>B.Sc.,XII,X</t>
+  </si>
+  <si>
+    <t>2015,2012,2010</t>
+  </si>
+  <si>
+    <t>MU,MH,MH</t>
+  </si>
+  <si>
+    <t>75,80,91</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
     <t>educationDetails</t>
   </si>
   <si>
-    <t>803418901109</t>
-  </si>
-  <si>
-    <t>B.Sc.,XII,X</t>
-  </si>
-  <si>
-    <t>2015,2012,2010</t>
-  </si>
-  <si>
-    <t>MU,MH,MH</t>
-  </si>
-  <si>
-    <t>75,80,91</t>
-  </si>
-  <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
     <t>editemp_003</t>
-  </si>
-  <si>
-    <t>employmentDetails</t>
   </si>
   <si>
     <t>personalDetails</t>
@@ -368,11 +374,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +409,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="8.25"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -416,6 +428,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -424,18 +458,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,16 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +512,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -508,29 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,9 +557,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,31 +573,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +669,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +699,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,103 +735,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,30 +764,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,7 +786,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,36 +864,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,130 +885,130 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,10 +1022,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1354,7 +1366,7 @@
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="14" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14" style="10" customWidth="1"/>
     <col min="12" max="12" width="13.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="95" customWidth="1"/>
@@ -1428,7 +1440,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1580,7 +1592,7 @@
       <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>803418901107</v>
       </c>
       <c r="L2" t="s">
@@ -1631,10 +1643,10 @@
       <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AG2" t="s">
@@ -1720,10 +1732,10 @@
       <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>803418901108</v>
       </c>
       <c r="L3" t="s">
@@ -1777,10 +1789,10 @@
       <c r="AD3" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AG3" t="s">
@@ -1869,7 +1881,7 @@
       <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L4" t="s">
@@ -1914,16 +1926,16 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="4" t="s">
         <v>99</v>
       </c>
       <c r="AD4" t="s">
         <v>100</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AG4" t="s">
@@ -2000,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2304,9 +2316,9 @@
         <v>69</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AH2" t="s">
@@ -2316,7 +2328,7 @@
         <v>73</v>
       </c>
       <c r="AJ2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AK2">
         <v>1234</v>
@@ -2369,7 +2381,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>103</v>
@@ -2378,7 +2390,7 @@
         <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -2389,7 +2401,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
@@ -2398,7 +2410,7 @@
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -2409,7 +2421,7 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
   <si>
     <t>testId</t>
   </si>
@@ -323,6 +323,18 @@
     <t>no_of_education_details</t>
   </si>
   <si>
+    <t>confirm_employee</t>
+  </si>
+  <si>
+    <t>emp_conf_prob_status</t>
+  </si>
+  <si>
+    <t>exit_employee</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
     <t>editemp_001</t>
   </si>
   <si>
@@ -332,37 +344,46 @@
     <t>EditEmp</t>
   </si>
   <si>
+    <t>salaryDetails</t>
+  </si>
+  <si>
+    <t>803418901109</t>
+  </si>
+  <si>
+    <t>B.Sc.,XII,X</t>
+  </si>
+  <si>
+    <t>2015,2012,2010</t>
+  </si>
+  <si>
+    <t>MU,MH,MH</t>
+  </si>
+  <si>
+    <t>75,80,91</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>RESINGED</t>
+  </si>
+  <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
+    <t>educationDetails</t>
+  </si>
+  <si>
+    <t>editemp_003</t>
+  </si>
+  <si>
     <t>employmentDetails</t>
-  </si>
-  <si>
-    <t>803418901109</t>
-  </si>
-  <si>
-    <t>B.Sc.,XII,X</t>
-  </si>
-  <si>
-    <t>2015,2012,2010</t>
-  </si>
-  <si>
-    <t>MU,MH,MH</t>
-  </si>
-  <si>
-    <t>75,80,91</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
-    <t>educationDetails</t>
-  </si>
-  <si>
-    <t>editemp_003</t>
   </si>
   <si>
     <t>personalDetails</t>
@@ -373,10 +394,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -421,15 +442,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,8 +458,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +492,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,9 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,16 +540,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -506,7 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,42 +578,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -573,25 +594,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,157 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,6 +785,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,22 +838,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,194 +885,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1022,6 +1043,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1366,7 +1388,7 @@
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="14" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="95" customWidth="1"/>
@@ -1440,7 +1462,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1592,7 +1614,7 @@
       <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>803418901107</v>
       </c>
       <c r="L2" t="s">
@@ -1732,10 +1754,10 @@
       <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>803418901108</v>
       </c>
       <c r="L3" t="s">
@@ -1881,7 +1903,7 @@
       <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>93</v>
       </c>
       <c r="L4" t="s">
@@ -2010,10 +2032,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2049,30 +2071,32 @@
     <col min="29" max="29" width="5" customWidth="1"/>
     <col min="30" max="30" width="21.1428571428571" customWidth="1"/>
     <col min="31" max="31" width="10.5714285714286" customWidth="1"/>
-    <col min="32" max="32" width="21.8571428571429" customWidth="1"/>
+    <col min="32" max="32" width="19.5714285714286" customWidth="1"/>
     <col min="33" max="33" width="15.7142857142857" customWidth="1"/>
     <col min="34" max="34" width="8.71428571428571" customWidth="1"/>
     <col min="35" max="35" width="12.1428571428571" customWidth="1"/>
     <col min="36" max="36" width="9.14285714285714" customWidth="1"/>
-    <col min="37" max="37" width="13.1428571428571" customWidth="1"/>
-    <col min="38" max="38" width="9" customWidth="1"/>
-    <col min="39" max="39" width="7" customWidth="1"/>
-    <col min="40" max="40" width="8.42857142857143" customWidth="1"/>
-    <col min="41" max="41" width="18.2857142857143" customWidth="1"/>
-    <col min="42" max="42" width="7.57142857142857" customWidth="1"/>
-    <col min="43" max="43" width="12.4285714285714" customWidth="1"/>
-    <col min="44" max="44" width="6.57142857142857" customWidth="1"/>
-    <col min="45" max="45" width="22.4285714285714" customWidth="1"/>
-    <col min="46" max="46" width="19.5714285714286" customWidth="1"/>
-    <col min="47" max="47" width="18.8571428571429" customWidth="1"/>
-    <col min="48" max="48" width="21.5714285714286" customWidth="1"/>
-    <col min="49" max="49" width="21.4285714285714" customWidth="1"/>
-    <col min="50" max="50" width="13.1428571428571" customWidth="1"/>
-    <col min="51" max="51" width="5.57142857142857" customWidth="1"/>
-    <col min="52" max="52" width="14.7142857142857" customWidth="1"/>
+    <col min="37" max="37" width="19.4285714285714" customWidth="1"/>
+    <col min="38" max="40" width="23.2857142857143" customWidth="1"/>
+    <col min="41" max="41" width="13.1428571428571" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
+    <col min="43" max="43" width="7" customWidth="1"/>
+    <col min="44" max="44" width="8.42857142857143" customWidth="1"/>
+    <col min="45" max="45" width="18.2857142857143" customWidth="1"/>
+    <col min="46" max="46" width="7.57142857142857" customWidth="1"/>
+    <col min="47" max="47" width="12.4285714285714" customWidth="1"/>
+    <col min="48" max="48" width="6.57142857142857" customWidth="1"/>
+    <col min="49" max="49" width="22.4285714285714" customWidth="1"/>
+    <col min="50" max="50" width="19.5714285714286" customWidth="1"/>
+    <col min="51" max="51" width="18.8571428571429" customWidth="1"/>
+    <col min="52" max="52" width="21.5714285714286" customWidth="1"/>
+    <col min="53" max="53" width="21.4285714285714" customWidth="1"/>
+    <col min="54" max="54" width="13.1428571428571" customWidth="1"/>
+    <col min="55" max="55" width="5.57142857142857" customWidth="1"/>
+    <col min="56" max="56" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:52">
+    <row r="1" s="1" customFormat="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,66 +2206,78 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -2261,8 +2297,8 @@
       <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>106</v>
+      <c r="K2" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -2295,16 +2331,16 @@
         <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -2316,7 +2352,7 @@
         <v>69</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AG2" s="9" t="s">
         <v>71</v>
@@ -2328,69 +2364,81 @@
         <v>73</v>
       </c>
       <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2">
+        <v>116</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2">
         <v>1234</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <v>1234</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <v>1234</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <v>40000</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <v>40000</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <v>100000</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <v>30000</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>15000</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>19200</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <v>15000</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <v>6000</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <v>6200</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <v>5000</v>
       </c>
-      <c r="AX2">
+      <c r="BB2">
         <v>0</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <v>3600</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -2401,16 +2449,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -2421,7 +2469,7 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>testId</t>
   </si>
@@ -185,22 +185,22 @@
     <t>password</t>
   </si>
   <si>
-    <t>Isabel</t>
+    <t>Carolina</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>Kshlerin</t>
-  </si>
-  <si>
-    <t>Isabel.Kshlerin9@outlook.com</t>
-  </si>
-  <si>
-    <t>YEVHZ7181I</t>
-  </si>
-  <si>
-    <t>45983 Purdy Club, Lindgrenchester - 12900-1103, Florida, Wallis and Futuna</t>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Carolina53@gmail.com</t>
+  </si>
+  <si>
+    <t>CFJDT6347N</t>
+  </si>
+  <si>
+    <t>4079 Klocko Fort, Karianehaven - 03557, North Carolina, Vietnam</t>
   </si>
   <si>
     <t>A+</t>
@@ -212,181 +212,187 @@
     <t>Mole</t>
   </si>
   <si>
+    <t>SISTER</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Carolina@gmail.com</t>
+  </si>
+  <si>
+    <t>TRAINEE</t>
+  </si>
+  <si>
+    <t>Automation Test Engineer</t>
+  </si>
+  <si>
+    <t>Galentic Projects</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>newemp_002</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Murazik</t>
+  </si>
+  <si>
+    <t>Vance.Murazik@yahoo.com</t>
+  </si>
+  <si>
+    <t>KEUOA9275E</t>
+  </si>
+  <si>
+    <t>02619 Lexie Roads, Port Aliya - 03117-8793, Colorado, Somalia</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>18215 Eulah Common, New Paytonland - 23726-9203, Louisiana, Norfolk Island</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Vance@yahoo.com</t>
+  </si>
+  <si>
+    <t>CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>newemp_003</t>
+  </si>
+  <si>
+    <t>Calista</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Champlin</t>
+  </si>
+  <si>
+    <t>Calista_Champlin15@outlook.com</t>
+  </si>
+  <si>
+    <t>KEUOA9276E</t>
+  </si>
+  <si>
+    <t>517 Leora Estate, North Berryside - 82329, South Dakota, Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Calista@outlook.com</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>no_of_education_details</t>
+  </si>
+  <si>
+    <t>confirm_employee</t>
+  </si>
+  <si>
+    <t>emp_conf_prob_status</t>
+  </si>
+  <si>
+    <t>exit_employee</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>editemp_001</t>
+  </si>
+  <si>
+    <t>modules.employee.tests.EmployeeEditTest</t>
+  </si>
+  <si>
+    <t>EditEmp</t>
+  </si>
+  <si>
+    <t>personalDetails</t>
+  </si>
+  <si>
     <t>FATHER</t>
   </si>
   <si>
-    <t>B.Sc.</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Isabel@outlook.com</t>
-  </si>
-  <si>
-    <t>TRAINEE</t>
-  </si>
-  <si>
-    <t>Automation Test Engineer</t>
-  </si>
-  <si>
-    <t>Galentic Projects</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>newemp_002</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Botsford</t>
-  </si>
-  <si>
-    <t>Cynthia83@apple.com</t>
-  </si>
-  <si>
-    <t>YEVHZ7182I</t>
-  </si>
-  <si>
-    <t>31244 Kathleen Drives, Port Salmafort - 19121, Tennessee, Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>AB+</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SISTER</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Cynthia@apple.com</t>
-  </si>
-  <si>
-    <t>CONTRACTUAL</t>
-  </si>
-  <si>
-    <t>newemp_003</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
-    <t>Xavier_Hansen@zoho.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>YEVHZ7183I</t>
-  </si>
-  <si>
-    <t>20274 Will Causeway, Olenborough - 19808-6633, Massachusetts, Tokelau</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>MOTHER</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Xavier@zoho.com</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
-    <t>no_of_education_details</t>
-  </si>
-  <si>
-    <t>confirm_employee</t>
-  </si>
-  <si>
-    <t>emp_conf_prob_status</t>
-  </si>
-  <si>
-    <t>exit_employee</t>
-  </si>
-  <si>
-    <t>employee_status</t>
-  </si>
-  <si>
-    <t>editemp_001</t>
-  </si>
-  <si>
-    <t>modules.employee.tests.EmployeeEditTest</t>
-  </si>
-  <si>
-    <t>EditEmp</t>
+    <t>B.Sc.,XII,X</t>
+  </si>
+  <si>
+    <t>2015,2012,2010</t>
+  </si>
+  <si>
+    <t>MU,MH,MH</t>
+  </si>
+  <si>
+    <t>75,80,91</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>RESINGED</t>
+  </si>
+  <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
+    <t>educationDetails</t>
+  </si>
+  <si>
+    <t>editemp_003</t>
+  </si>
+  <si>
+    <t>employmentDetails</t>
+  </si>
+  <si>
+    <t>editemp_004</t>
   </si>
   <si>
     <t>salaryDetails</t>
   </si>
   <si>
-    <t>803418901109</t>
-  </si>
-  <si>
-    <t>B.Sc.,XII,X</t>
-  </si>
-  <si>
-    <t>2015,2012,2010</t>
-  </si>
-  <si>
-    <t>MU,MH,MH</t>
-  </si>
-  <si>
-    <t>75,80,91</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>RESINGED</t>
-  </si>
-  <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
-    <t>educationDetails</t>
-  </si>
-  <si>
-    <t>editemp_003</t>
-  </si>
-  <si>
-    <t>employmentDetails</t>
-  </si>
-  <si>
-    <t>personalDetails</t>
+    <t>editemp_005</t>
+  </si>
+  <si>
+    <t>editemp_006</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -430,6 +436,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
@@ -442,9 +456,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +478,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -466,7 +494,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,67 +532,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,15 +556,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +583,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -594,79 +600,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +708,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,7 +732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,78 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,17 +794,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,22 +833,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,196 +891,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,14 +1378,14 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="48.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
     <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
@@ -1387,14 +1393,14 @@
     <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="14" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="14" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
-    <col min="14" max="14" width="95" customWidth="1"/>
+    <col min="14" max="14" width="77.2857142857143" customWidth="1"/>
     <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="21.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="41" customWidth="1"/>
+    <col min="17" max="17" width="77.2857142857143" customWidth="1"/>
     <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
     <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
@@ -1406,7 +1412,7 @@
     <col min="26" max="26" width="11.7142857142857" customWidth="1"/>
     <col min="27" max="27" width="17.5714285714286" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="24.4285714285714" customWidth="1"/>
+    <col min="29" max="29" width="20.7142857142857" customWidth="1"/>
     <col min="30" max="30" width="15.1428571428571" customWidth="1"/>
     <col min="31" max="31" width="21.8571428571429" customWidth="1"/>
     <col min="32" max="32" width="15.7142857142857" customWidth="1"/>
@@ -1462,7 +1468,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1611,11 +1617,11 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="11">
-        <v>803418901107</v>
+      <c r="K2" s="7">
+        <v>893019358966</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -1633,10 +1639,10 @@
         <v>63</v>
       </c>
       <c r="R2">
-        <v>9387325078</v>
+        <v>4968873875</v>
       </c>
       <c r="S2">
-        <v>9387325081</v>
+        <v>4968873876</v>
       </c>
       <c r="T2" t="s">
         <v>64</v>
@@ -1659,16 +1665,16 @@
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="15" t="s">
         <v>68</v>
       </c>
       <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="16" t="s">
         <v>71</v>
       </c>
       <c r="AG2" t="s">
@@ -1754,11 +1760,11 @@
       <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="11">
-        <v>803418901108</v>
+      <c r="K3" s="7">
+        <v>893019358966</v>
       </c>
       <c r="L3" t="s">
         <v>80</v>
@@ -1776,19 +1782,19 @@
         <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="R3">
-        <v>9387325079</v>
+        <v>2302468575</v>
       </c>
       <c r="S3">
-        <v>9387325082</v>
+        <v>2302468578</v>
       </c>
       <c r="T3" t="s">
         <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
         <v>85</v>
@@ -1805,16 +1811,16 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="15" t="s">
         <v>86</v>
       </c>
       <c r="AD3" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="16" t="s">
         <v>71</v>
       </c>
       <c r="AG3" t="s">
@@ -1903,38 +1909,38 @@
       <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7">
+        <v>893019358967</v>
+      </c>
+      <c r="L4" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" t="s">
-        <v>94</v>
       </c>
       <c r="M4">
         <v>15011998</v>
       </c>
       <c r="N4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s">
         <v>95</v>
-      </c>
-      <c r="O4" t="s">
-        <v>96</v>
       </c>
       <c r="P4" t="s">
         <v>63</v>
       </c>
       <c r="R4">
-        <v>9387325080</v>
+        <v>2302468576</v>
       </c>
       <c r="S4">
-        <v>9387325083</v>
+        <v>2302468579</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
       </c>
       <c r="U4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
         <v>97</v>
-      </c>
-      <c r="W4" t="s">
-        <v>98</v>
       </c>
       <c r="X4">
         <v>2017</v>
@@ -1948,16 +1954,16 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="AD4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AF4" s="16" t="s">
         <v>71</v>
       </c>
       <c r="AG4" t="s">
@@ -2020,9 +2026,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="Isabel@outlook.com"/>
-    <hyperlink ref="AC3" r:id="rId2" display="Cynthia@apple.com"/>
-    <hyperlink ref="AC4" r:id="rId3" display="Xavier@zoho.com"/>
+    <hyperlink ref="AC3" r:id="rId1" display="Vance@yahoo.com"/>
+    <hyperlink ref="AC4" r:id="rId2" display="Calista@outlook.com"/>
+    <hyperlink ref="AC2" r:id="rId3" display="Carolina@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2032,13 +2038,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
@@ -2070,7 +2076,7 @@
     <col min="28" max="28" width="17.5714285714286" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
     <col min="30" max="30" width="21.1428571428571" customWidth="1"/>
-    <col min="31" max="31" width="10.5714285714286" customWidth="1"/>
+    <col min="31" max="31" width="15.1428571428571" customWidth="1"/>
     <col min="32" max="32" width="19.5714285714286" customWidth="1"/>
     <col min="33" max="33" width="15.7142857142857" customWidth="1"/>
     <col min="34" max="34" width="8.71428571428571" customWidth="1"/>
@@ -2127,7 +2133,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2164,12 +2170,12 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -2206,16 +2212,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2268,16 +2274,16 @@
     </row>
     <row r="2" spans="1:56">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -2285,160 +2291,135 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2">
-        <v>15011998</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R2">
-        <v>9387325078</v>
-      </c>
-      <c r="S2">
-        <v>9387325081</v>
-      </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>40000</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>40000</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>19200</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>6000</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>6200</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
+      <c r="A3" t="s">
         <v>118</v>
       </c>
-      <c r="AO2">
-        <v>1234</v>
-      </c>
-      <c r="AP2">
-        <v>1234</v>
-      </c>
-      <c r="AQ2">
-        <v>1234</v>
-      </c>
-      <c r="AR2">
-        <v>40000</v>
-      </c>
-      <c r="AS2">
-        <v>40000</v>
-      </c>
-      <c r="AT2">
-        <v>100000</v>
-      </c>
-      <c r="AU2">
-        <v>30000</v>
-      </c>
-      <c r="AV2">
-        <v>15000</v>
-      </c>
-      <c r="AW2">
-        <v>19200</v>
-      </c>
-      <c r="AX2">
-        <v>15000</v>
-      </c>
-      <c r="AY2">
-        <v>6000</v>
-      </c>
-      <c r="AZ2">
-        <v>6200</v>
-      </c>
-      <c r="BA2">
-        <v>5000</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>3600</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -2446,19 +2427,71 @@
       <c r="F3" t="s">
         <v>55</v>
       </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -2466,16 +2499,325 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="5" spans="1:56">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+    </row>
+    <row r="6" spans="1:56">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+    </row>
+    <row r="7" spans="1:56">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+    </row>
+    <row r="8" spans="10:56">
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AD2" r:id="rId1" display="Isabel@outlook.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
   <si>
     <t>testId</t>
   </si>
@@ -185,22 +185,22 @@
     <t>password</t>
   </si>
   <si>
-    <t>Carolina</t>
+    <t>Rosario</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Carolina53@gmail.com</t>
-  </si>
-  <si>
-    <t>CFJDT6347N</t>
-  </si>
-  <si>
-    <t>4079 Klocko Fort, Karianehaven - 03557, North Carolina, Vietnam</t>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Rosario76@yandex.com</t>
+  </si>
+  <si>
+    <t>QLUFS8432L</t>
+  </si>
+  <si>
+    <t>94586 Effertz Crossing, Blickstad - 46389-5436, Rhode Island, Mongolia</t>
   </si>
   <si>
     <t>A+</t>
@@ -212,70 +212,70 @@
     <t>Mole</t>
   </si>
   <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Rosario@yandex.com</t>
+  </si>
+  <si>
+    <t>TRAINEE</t>
+  </si>
+  <si>
+    <t>Automation Test Engineer</t>
+  </si>
+  <si>
+    <t>Galentic Projects</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>newemp_002</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Wolff</t>
+  </si>
+  <si>
+    <t>Kay46@zoho.com</t>
+  </si>
+  <si>
+    <t>QLUFS8433L</t>
+  </si>
+  <si>
+    <t>651 Evan Fall, Rheaview - 37542, Nebraska, Botswana</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>SISTER</t>
   </si>
   <si>
-    <t>B.Sc.</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Carolina@gmail.com</t>
-  </si>
-  <si>
-    <t>TRAINEE</t>
-  </si>
-  <si>
-    <t>Automation Test Engineer</t>
-  </si>
-  <si>
-    <t>Galentic Projects</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>newemp_002</t>
-  </si>
-  <si>
-    <t>Vance</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Murazik</t>
-  </si>
-  <si>
-    <t>Vance.Murazik@yahoo.com</t>
-  </si>
-  <si>
-    <t>KEUOA9275E</t>
-  </si>
-  <si>
-    <t>02619 Lexie Roads, Port Aliya - 03117-8793, Colorado, Somalia</t>
-  </si>
-  <si>
-    <t>AB+</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>18215 Eulah Common, New Paytonland - 23726-9203, Louisiana, Norfolk Island</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
-    <t>Vance@yahoo.com</t>
+    <t>Kay@zoho.com</t>
   </si>
   <si>
     <t>CONTRACTUAL</t>
@@ -284,34 +284,31 @@
     <t>newemp_003</t>
   </si>
   <si>
-    <t>Calista</t>
+    <t>Scottie</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Champlin</t>
-  </si>
-  <si>
-    <t>Calista_Champlin15@outlook.com</t>
-  </si>
-  <si>
-    <t>KEUOA9276E</t>
-  </si>
-  <si>
-    <t>517 Leora Estate, North Berryside - 82329, South Dakota, Pitcairn Islands</t>
+    <t>Hilll</t>
+  </si>
+  <si>
+    <t>Scottie.Hilll@rediffmail.com</t>
+  </si>
+  <si>
+    <t>QLUFS8434L</t>
+  </si>
+  <si>
+    <t>80280 Farrell Lake, Alexaville - 22921-3263, Virginia, Guinea</t>
   </si>
   <si>
     <t>AB-</t>
   </si>
   <si>
-    <t>MOTHER</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
-    <t>Calista@outlook.com</t>
+    <t>Scottie@rediffmail.com</t>
   </si>
   <si>
     <t>PERMANENT</t>
@@ -344,9 +341,18 @@
     <t>personalDetails</t>
   </si>
   <si>
+    <t>Blickstad - 46389-5436, Rhode Island, Mongolia</t>
+  </si>
+  <si>
     <t>FATHER</t>
   </si>
   <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
+    <t>educationDetails</t>
+  </si>
+  <si>
     <t>B.Sc.,XII,X</t>
   </si>
   <si>
@@ -359,6 +365,12 @@
     <t>75,80,91</t>
   </si>
   <si>
+    <t>editemp_003</t>
+  </si>
+  <si>
+    <t>employmentDetails</t>
+  </si>
+  <si>
     <t>Software Engineer</t>
   </si>
   <si>
@@ -371,18 +383,6 @@
     <t>RESINGED</t>
   </si>
   <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
-    <t>educationDetails</t>
-  </si>
-  <si>
-    <t>editemp_003</t>
-  </si>
-  <si>
-    <t>employmentDetails</t>
-  </si>
-  <si>
     <t>editemp_004</t>
   </si>
   <si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>editemp_006</t>
+  </si>
+  <si>
+    <t>editemp_007</t>
   </si>
 </sst>
 </file>
@@ -401,9 +404,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -456,6 +459,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -467,13 +477,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,48 +497,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,6 +519,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -564,6 +552,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +633,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -643,90 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,26 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -868,6 +851,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -894,22 +897,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -918,141 +921,139 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
@@ -1378,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:N2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1394,7 +1395,7 @@
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="14" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="77.2857142857143" customWidth="1"/>
@@ -1468,7 +1469,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1617,11 +1618,11 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="7">
-        <v>893019358966</v>
+      <c r="K2" s="6">
+        <v>283596342664</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -1639,10 +1640,10 @@
         <v>63</v>
       </c>
       <c r="R2">
-        <v>4968873875</v>
+        <v>5226997629</v>
       </c>
       <c r="S2">
-        <v>4968873876</v>
+        <v>5226997632</v>
       </c>
       <c r="T2" t="s">
         <v>64</v>
@@ -1665,16 +1666,16 @@
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="13" t="s">
         <v>68</v>
       </c>
       <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="14" t="s">
         <v>71</v>
       </c>
       <c r="AG2" t="s">
@@ -1763,8 +1764,8 @@
       <c r="J3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="7">
-        <v>893019358966</v>
+      <c r="K3" s="6">
+        <v>283596342665</v>
       </c>
       <c r="L3" t="s">
         <v>80</v>
@@ -1782,19 +1783,19 @@
         <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="R3">
-        <v>2302468575</v>
+        <v>5226997630</v>
       </c>
       <c r="S3">
-        <v>2302468578</v>
+        <v>5226997633</v>
       </c>
       <c r="T3" t="s">
         <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="W3" t="s">
         <v>85</v>
@@ -1811,16 +1812,16 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="13" t="s">
         <v>86</v>
       </c>
       <c r="AD3" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AF3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="AG3" t="s">
@@ -1909,8 +1910,8 @@
       <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7">
-        <v>893019358967</v>
+      <c r="K4" s="6">
+        <v>283596342666</v>
       </c>
       <c r="L4" t="s">
         <v>93</v>
@@ -1928,19 +1929,19 @@
         <v>63</v>
       </c>
       <c r="R4">
-        <v>2302468576</v>
+        <v>5226997631</v>
       </c>
       <c r="S4">
-        <v>2302468579</v>
+        <v>5226997634</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
       </c>
       <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s">
         <v>96</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
       </c>
       <c r="X4">
         <v>2017</v>
@@ -1954,16 +1955,16 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AE4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AF4" s="14" t="s">
         <v>71</v>
       </c>
       <c r="AG4" t="s">
@@ -2026,9 +2027,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1" display="Vance@yahoo.com"/>
-    <hyperlink ref="AC4" r:id="rId2" display="Calista@outlook.com"/>
-    <hyperlink ref="AC2" r:id="rId3" display="Carolina@gmail.com"/>
+    <hyperlink ref="AC2" r:id="rId1" display="Rosario@yandex.com"/>
+    <hyperlink ref="AC3" r:id="rId2" display="Kay@zoho.com"/>
+    <hyperlink ref="AC4" r:id="rId3" display="Scottie@rediffmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2040,8 +2041,8 @@
   <sheetPr/>
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -2062,7 +2063,7 @@
     <col min="14" max="14" width="74.1428571428571" customWidth="1"/>
     <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="21.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="24.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="46.4285714285714" customWidth="1"/>
     <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
     <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
@@ -2133,7 +2134,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2170,12 +2171,12 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -2212,16 +2213,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2272,18 +2273,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -2291,135 +2292,68 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="6">
+        <v>283596342664</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2">
+        <v>15011998</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="3">
+        <v>9986348159</v>
+      </c>
+      <c r="S2" s="3">
+        <v>7985191734</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4">
-        <v>2</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>40000</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>40000</v>
-      </c>
-      <c r="AT2" s="4">
-        <v>100000</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>30000</v>
-      </c>
-      <c r="AV2" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AW2" s="4">
-        <v>19200</v>
-      </c>
-      <c r="AX2" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AY2" s="4">
-        <v>6000</v>
-      </c>
-      <c r="AZ2" s="4">
-        <v>6200</v>
-      </c>
-      <c r="BA2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="BB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="4">
-        <v>3600</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>0</v>
+      <c r="V2" s="3"/>
+      <c r="AE2" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -2427,71 +2361,81 @@
       <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -2499,68 +2443,96 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
         <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
@@ -2571,68 +2543,70 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3">
+        <v>50000</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
         <v>124</v>
       </c>
       <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
         <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
@@ -2643,68 +2617,69 @@
       <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AS6" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
@@ -2715,109 +2690,184 @@
       <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AT7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>30000</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>19200</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>6200</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>3600</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="10:56">
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
+    <row r="8" spans="1:56">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>1234</v>
+      </c>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AD4" r:id="rId1" display="Scottie@rediffmail.com"/>
+    <hyperlink ref="AD8" r:id="rId1" display="Scottie@rediffmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewEmp" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
   <si>
     <t>testId</t>
   </si>
@@ -185,6 +185,165 @@
     <t>password</t>
   </si>
   <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Connor85@zoho.com</t>
+  </si>
+  <si>
+    <t>RMQIV7536T</t>
+  </si>
+  <si>
+    <t>2921 Ondricka Circles, Garlandview - 59442-4092, Georgia, Turkmenistan</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Mole</t>
+  </si>
+  <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>ConnorH@zoho.com</t>
+  </si>
+  <si>
+    <t>TRAINEE</t>
+  </si>
+  <si>
+    <t>Automation Test Engineer</t>
+  </si>
+  <si>
+    <t>Galentic Projects</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>newemp_002</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Wolff</t>
+  </si>
+  <si>
+    <t>Kay46@zoho.com</t>
+  </si>
+  <si>
+    <t>RMQIV7537T</t>
+  </si>
+  <si>
+    <t>651 Evan Fall, Rheaview - 37542, Nebraska, Botswana</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>94586 Effertz Crossing, Blickstad - 46389-5436, Rhode Island, Mongolia</t>
+  </si>
+  <si>
+    <t>SISTER</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Kay@zoho.com</t>
+  </si>
+  <si>
+    <t>CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>newemp_003</t>
+  </si>
+  <si>
+    <t>Scottie</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Hilll</t>
+  </si>
+  <si>
+    <t>Scottie.Hilll@rediffmail.com</t>
+  </si>
+  <si>
+    <t>RMQIV7538T</t>
+  </si>
+  <si>
+    <t>80280 Farrell Lake, Alexaville - 22921-3263, Virginia, Guinea</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Scottie@rediffmail.com</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>no_of_education_details</t>
+  </si>
+  <si>
+    <t>confirm_employee</t>
+  </si>
+  <si>
+    <t>emp_conf_prob_status</t>
+  </si>
+  <si>
+    <t>exit_employee</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>editemp_001</t>
+  </si>
+  <si>
+    <t>modules.employee.tests.EmployeeEditTest</t>
+  </si>
+  <si>
+    <t>EditEmp</t>
+  </si>
+  <si>
+    <t>personalDetails</t>
+  </si>
+  <si>
     <t>Rosario</t>
   </si>
   <si>
@@ -198,147 +357,6 @@
   </si>
   <si>
     <t>QLUFS8432L</t>
-  </si>
-  <si>
-    <t>94586 Effertz Crossing, Blickstad - 46389-5436, Rhode Island, Mongolia</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Mole</t>
-  </si>
-  <si>
-    <t>MOTHER</t>
-  </si>
-  <si>
-    <t>B.Sc.</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Rosario@yandex.com</t>
-  </si>
-  <si>
-    <t>TRAINEE</t>
-  </si>
-  <si>
-    <t>Automation Test Engineer</t>
-  </si>
-  <si>
-    <t>Galentic Projects</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>newemp_002</t>
-  </si>
-  <si>
-    <t>Kay</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Wolff</t>
-  </si>
-  <si>
-    <t>Kay46@zoho.com</t>
-  </si>
-  <si>
-    <t>QLUFS8433L</t>
-  </si>
-  <si>
-    <t>651 Evan Fall, Rheaview - 37542, Nebraska, Botswana</t>
-  </si>
-  <si>
-    <t>AB+</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SISTER</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Kay@zoho.com</t>
-  </si>
-  <si>
-    <t>CONTRACTUAL</t>
-  </si>
-  <si>
-    <t>newemp_003</t>
-  </si>
-  <si>
-    <t>Scottie</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Hilll</t>
-  </si>
-  <si>
-    <t>Scottie.Hilll@rediffmail.com</t>
-  </si>
-  <si>
-    <t>QLUFS8434L</t>
-  </si>
-  <si>
-    <t>80280 Farrell Lake, Alexaville - 22921-3263, Virginia, Guinea</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Scottie@rediffmail.com</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
-    <t>no_of_education_details</t>
-  </si>
-  <si>
-    <t>confirm_employee</t>
-  </si>
-  <si>
-    <t>emp_conf_prob_status</t>
-  </si>
-  <si>
-    <t>exit_employee</t>
-  </si>
-  <si>
-    <t>employee_status</t>
-  </si>
-  <si>
-    <t>editemp_001</t>
-  </si>
-  <si>
-    <t>modules.employee.tests.EmployeeEditTest</t>
-  </si>
-  <si>
-    <t>EditEmp</t>
-  </si>
-  <si>
-    <t>personalDetails</t>
   </si>
   <si>
     <t>Blickstad - 46389-5436, Rhode Island, Mongolia</t>
@@ -404,8 +422,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -466,15 +484,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +524,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,46 +590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,13 +611,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -603,42 +621,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,37 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,43 +759,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,30 +795,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -772,18 +802,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +812,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,6 +855,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -832,21 +880,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,21 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -897,7 +915,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,130 +933,130 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1622,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="K2" s="6">
-        <v>283596342664</v>
+        <v>972042238146</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -1640,10 +1658,10 @@
         <v>63</v>
       </c>
       <c r="R2">
-        <v>5226997629</v>
+        <v>7897454444</v>
       </c>
       <c r="S2">
-        <v>5226997632</v>
+        <v>7897454447</v>
       </c>
       <c r="T2" t="s">
         <v>64</v>
@@ -1765,7 +1783,7 @@
         <v>79</v>
       </c>
       <c r="K3" s="6">
-        <v>283596342665</v>
+        <v>972042238147</v>
       </c>
       <c r="L3" t="s">
         <v>80</v>
@@ -1783,22 +1801,22 @@
         <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="R3">
-        <v>5226997630</v>
+        <v>7897454445</v>
       </c>
       <c r="S3">
-        <v>5226997633</v>
+        <v>7897454448</v>
       </c>
       <c r="T3" t="s">
         <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X3">
         <v>2016</v>
@@ -1813,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE3" s="14" t="s">
         <v>70</v>
@@ -1884,7 +1902,7 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -1899,40 +1917,40 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="6">
-        <v>283596342666</v>
+        <v>972042238148</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4">
         <v>15011998</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
         <v>63</v>
       </c>
       <c r="R4">
-        <v>5226997631</v>
+        <v>7897454446</v>
       </c>
       <c r="S4">
-        <v>5226997634</v>
+        <v>7897454449</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
@@ -1941,7 +1959,7 @@
         <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X4">
         <v>2017</v>
@@ -1956,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE4" s="14" t="s">
         <v>70</v>
@@ -2027,9 +2045,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="Rosario@yandex.com"/>
-    <hyperlink ref="AC3" r:id="rId2" display="Kay@zoho.com"/>
-    <hyperlink ref="AC4" r:id="rId3" display="Scottie@rediffmail.com"/>
+    <hyperlink ref="AC3" r:id="rId1" display="Kay@zoho.com"/>
+    <hyperlink ref="AC4" r:id="rId2" display="Scottie@rediffmail.com"/>
+    <hyperlink ref="AC2" r:id="rId3" display="ConnorH@zoho.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2041,7 +2059,7 @@
   <sheetPr/>
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
@@ -2171,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2213,16 +2231,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2275,16 +2293,16 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -2293,28 +2311,28 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="K2" s="6">
         <v>283596342664</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
@@ -2323,7 +2341,7 @@
         <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="R2" s="3">
         <v>9986348159</v>
@@ -2335,25 +2353,25 @@
         <v>64</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="V2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -2381,22 +2399,22 @@
         <v>2</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="11"/>
@@ -2426,16 +2444,16 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -2469,13 +2487,13 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>71</v>
@@ -2487,19 +2505,19 @@
         <v>73</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AO4" s="3">
         <v>1234</v>
@@ -2526,16 +2544,16 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -2600,16 +2618,16 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -2642,7 +2660,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="11"/>
@@ -2673,16 +2691,16 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
@@ -2715,7 +2733,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="11"/>
@@ -2765,16 +2783,16 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
@@ -2808,13 +2826,13 @@
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>71</v>
@@ -2826,19 +2844,19 @@
         <v>73</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AO8" s="3">
         <v>1234</v>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="NewEmp" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="134">
   <si>
     <t>testId</t>
   </si>
@@ -287,22 +287,22 @@
     <t>newemp_003</t>
   </si>
   <si>
-    <t>Scottie</t>
+    <t>Frieda</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Hilll</t>
-  </si>
-  <si>
-    <t>Scottie.Hilll@rediffmail.com</t>
-  </si>
-  <si>
-    <t>RMQIV7538T</t>
-  </si>
-  <si>
-    <t>80280 Farrell Lake, Alexaville - 22921-3263, Virginia, Guinea</t>
+    <t>Gleason</t>
+  </si>
+  <si>
+    <t>Frieda7@aol.com</t>
+  </si>
+  <si>
+    <t>RMQIV3234T</t>
+  </si>
+  <si>
+    <t>830 Bosco Ville, North Fatimaborough - 62316-0810, Wisconsin, Tanzania</t>
   </si>
   <si>
     <t>AB-</t>
@@ -311,82 +311,85 @@
     <t>ME</t>
   </si>
   <si>
+    <t>Frieda@aol.com</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>no_of_education_details</t>
+  </si>
+  <si>
+    <t>confirm_employee</t>
+  </si>
+  <si>
+    <t>emp_conf_prob_status</t>
+  </si>
+  <si>
+    <t>exit_employee</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>editemp_001</t>
+  </si>
+  <si>
+    <t>modules.employee.tests.EmployeeEditTest</t>
+  </si>
+  <si>
+    <t>EditEmp</t>
+  </si>
+  <si>
+    <t>personalDetails</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Rosario76@yandex.com</t>
+  </si>
+  <si>
+    <t>QLUFS8432L</t>
+  </si>
+  <si>
+    <t>Blickstad - 46389-5436, Rhode Island, Mongolia</t>
+  </si>
+  <si>
+    <t>FATHER</t>
+  </si>
+  <si>
+    <t>editemp_002</t>
+  </si>
+  <si>
+    <t>educationDetails</t>
+  </si>
+  <si>
+    <t>B.Sc.,XII,X</t>
+  </si>
+  <si>
+    <t>2015,2012,2010</t>
+  </si>
+  <si>
+    <t>MU,MH,MH</t>
+  </si>
+  <si>
+    <t>75,80,91</t>
+  </si>
+  <si>
+    <t>editemp_003</t>
+  </si>
+  <si>
+    <t>employmentDetails</t>
+  </si>
+  <si>
     <t>Scottie@rediffmail.com</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
-    <t>no_of_education_details</t>
-  </si>
-  <si>
-    <t>confirm_employee</t>
-  </si>
-  <si>
-    <t>emp_conf_prob_status</t>
-  </si>
-  <si>
-    <t>exit_employee</t>
-  </si>
-  <si>
-    <t>employee_status</t>
-  </si>
-  <si>
-    <t>editemp_001</t>
-  </si>
-  <si>
-    <t>modules.employee.tests.EmployeeEditTest</t>
-  </si>
-  <si>
-    <t>EditEmp</t>
-  </si>
-  <si>
-    <t>personalDetails</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Lang</t>
-  </si>
-  <si>
-    <t>Rosario76@yandex.com</t>
-  </si>
-  <si>
-    <t>QLUFS8432L</t>
-  </si>
-  <si>
-    <t>Blickstad - 46389-5436, Rhode Island, Mongolia</t>
-  </si>
-  <si>
-    <t>FATHER</t>
-  </si>
-  <si>
-    <t>editemp_002</t>
-  </si>
-  <si>
-    <t>educationDetails</t>
-  </si>
-  <si>
-    <t>B.Sc.,XII,X</t>
-  </si>
-  <si>
-    <t>2015,2012,2010</t>
-  </si>
-  <si>
-    <t>MU,MH,MH</t>
-  </si>
-  <si>
-    <t>75,80,91</t>
-  </si>
-  <si>
-    <t>editemp_003</t>
-  </si>
-  <si>
-    <t>employmentDetails</t>
   </si>
   <si>
     <t>Software Engineer</t>
@@ -421,10 +424,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -484,31 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +503,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,23 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,16 +593,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,16 +607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,43 +624,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,43 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,78 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,17 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,11 +842,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +898,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -894,28 +915,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,130 +936,130 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1929,7 +1932,7 @@
         <v>93</v>
       </c>
       <c r="K4" s="6">
-        <v>972042238148</v>
+        <v>597112896692</v>
       </c>
       <c r="L4" t="s">
         <v>94</v>
@@ -1947,10 +1950,10 @@
         <v>63</v>
       </c>
       <c r="R4">
-        <v>7897454446</v>
+        <v>5972896692</v>
       </c>
       <c r="S4">
-        <v>7897454449</v>
+        <v>5972896693</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
@@ -2046,8 +2049,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1" display="Kay@zoho.com"/>
-    <hyperlink ref="AC4" r:id="rId2" display="Scottie@rediffmail.com"/>
-    <hyperlink ref="AC2" r:id="rId3" display="ConnorH@zoho.com"/>
+    <hyperlink ref="AC2" r:id="rId2" display="ConnorH@zoho.com"/>
+    <hyperlink ref="AC4" r:id="rId3" display="Frieda@aol.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2487,13 +2490,13 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="5" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>71</v>
@@ -2505,19 +2508,19 @@
         <v>73</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO4" s="3">
         <v>1234</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -2553,7 +2556,7 @@
         <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
@@ -2627,7 +2630,7 @@
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -2700,7 +2703,7 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
@@ -2783,7 +2786,7 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>106</v>
@@ -2826,13 +2829,13 @@
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>71</v>
@@ -2844,19 +2847,19 @@
         <v>73</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO8" s="3">
         <v>1234</v>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
   <si>
     <t>testId</t>
   </si>
@@ -170,6 +170,12 @@
     <t>joining_bonus</t>
   </si>
   <si>
+    <t>upload_documents</t>
+  </si>
+  <si>
+    <t>document_name</t>
+  </si>
+  <si>
     <t>newemp_001</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Resume</t>
   </si>
   <si>
     <t>newemp_002</t>
@@ -494,14 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -517,8 +518,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,14 +535,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -548,6 +549,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -556,10 +572,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,14 +611,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -606,14 +623,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -624,13 +633,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,169 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,15 +824,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,6 +842,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -853,6 +877,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,21 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -904,21 +924,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,130 +945,130 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1415,14 +1424,14 @@
     <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
-    <col min="14" max="14" width="77.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="71.5714285714286" customWidth="1"/>
     <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="21.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="77.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="69.1428571428571" customWidth="1"/>
     <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
     <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
@@ -1434,7 +1443,7 @@
     <col min="26" max="26" width="11.7142857142857" customWidth="1"/>
     <col min="27" max="27" width="17.5714285714286" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="20.7142857142857" customWidth="1"/>
+    <col min="29" max="29" width="20.8571428571429" customWidth="1"/>
     <col min="30" max="30" width="15.1428571428571" customWidth="1"/>
     <col min="31" max="31" width="21.8571428571429" customWidth="1"/>
     <col min="32" max="32" width="15.7142857142857" customWidth="1"/>
@@ -1457,9 +1466,11 @@
     <col min="49" max="49" width="13.1428571428571" customWidth="1"/>
     <col min="50" max="50" width="5.57142857142857" customWidth="1"/>
     <col min="51" max="51" width="14.7142857142857" customWidth="1"/>
+    <col min="52" max="52" width="19.5714285714286" customWidth="1"/>
+    <col min="53" max="53" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:51">
+    <row r="1" s="1" customFormat="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,52 +1624,58 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="6">
         <v>972042238146</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R2">
         <v>7897454444</v>
@@ -1667,19 +1684,22 @@
         <v>7897454447</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
         <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X2">
         <v>2015</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z2">
         <v>75</v>
@@ -1688,25 +1708,25 @@
         <v>3</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ2">
         <v>1234</v>
@@ -1755,56 +1775,62 @@
       </c>
       <c r="AY2">
         <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="6">
         <v>972042238147</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M3">
         <v>15011998</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R3">
         <v>7897454445</v>
@@ -1813,19 +1839,19 @@
         <v>7897454448</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X3">
         <v>2016</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z3">
         <v>75</v>
@@ -1834,25 +1860,25 @@
         <v>2</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AD3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ3">
         <v>1234</v>
@@ -1905,49 +1931,49 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K4" s="6">
         <v>597112896692</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M4">
         <v>15011998</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R4">
         <v>5972896692</v>
@@ -1956,19 +1982,19 @@
         <v>5972896693</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>2017</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z4">
         <v>75</v>
@@ -1977,25 +2003,25 @@
         <v>1</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ4">
         <v>1234</v>
@@ -2192,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2234,16 +2260,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2296,55 +2322,55 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K2" s="6">
         <v>283596342664</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R2" s="3">
         <v>9986348159</v>
@@ -2353,34 +2379,34 @@
         <v>7985191734</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2402,22 +2428,22 @@
         <v>2</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="11"/>
@@ -2447,22 +2473,22 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2490,37 +2516,37 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO4" s="3">
         <v>1234</v>
@@ -2547,22 +2573,22 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2589,7 +2615,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF5" s="10"/>
       <c r="AG5" s="11"/>
@@ -2621,22 +2647,22 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2663,7 +2689,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="11"/>
@@ -2694,22 +2720,22 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2736,7 +2762,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="11"/>
@@ -2786,22 +2812,22 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2829,37 +2855,37 @@
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO8" s="3">
         <v>1234</v>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -433,9 +433,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -489,13 +489,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -507,6 +500,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,6 +558,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -566,22 +582,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -681,6 +681,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,18 +724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +851,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -881,26 +901,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -927,22 +927,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -951,7 +951,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,25 +963,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,19 +996,19 @@
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,55 +1017,55 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,8 +1086,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1707,16 +1707,16 @@
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>73</v>
       </c>
       <c r="AG2" t="s">
@@ -1859,16 +1859,16 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="14" t="s">
         <v>90</v>
       </c>
       <c r="AD3" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
         <v>73</v>
       </c>
       <c r="AG3" t="s">
@@ -2008,10 +2008,10 @@
       <c r="AD4" t="s">
         <v>102</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AE4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AF4" s="13" t="s">
         <v>73</v>
       </c>
       <c r="AG4" t="s">

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="142">
   <si>
     <t>testId</t>
   </si>
@@ -206,6 +206,9 @@
     <t>RMQIV7536T</t>
   </si>
   <si>
+    <t>27-MAR-1998</t>
+  </si>
+  <si>
     <t>2921 Ondricka Circles, Garlandview - 59442-4092, Georgia, Turkmenistan</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>MU</t>
   </si>
   <si>
+    <t>27-SEP-2018</t>
+  </si>
+  <si>
     <t>ConnorH@zoho.com</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
     <t>BE</t>
   </si>
   <si>
+    <t>27-SEP-2019</t>
+  </si>
+  <si>
     <t>Kay@zoho.com</t>
   </si>
   <si>
@@ -320,10 +329,16 @@
     <t>ME</t>
   </si>
   <si>
+    <t>11-SEP-2019</t>
+  </si>
+  <si>
     <t>Frieda@aol.com</t>
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>no_of_education_details</t>
@@ -433,10 +448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -489,6 +504,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -500,13 +522,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,48 +542,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +564,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -597,6 +597,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,6 +678,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,90 +775,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,26 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -901,6 +896,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -927,22 +942,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -951,128 +966,128 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1086,8 +1101,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,13 +1424,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="48.7142857142857" customWidth="1"/>
@@ -1427,7 +1444,7 @@
     <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
+    <col min="13" max="13" width="12.7142857142857" style="2" customWidth="1"/>
     <col min="14" max="14" width="71.5714285714286" customWidth="1"/>
     <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="21.8571428571429" customWidth="1"/>
@@ -1442,7 +1459,7 @@
     <col min="25" max="25" width="17.2857142857143" customWidth="1"/>
     <col min="26" max="26" width="11.7142857142857" customWidth="1"/>
     <col min="27" max="27" width="17.5714285714286" customWidth="1"/>
-    <col min="28" max="28" width="5" customWidth="1"/>
+    <col min="28" max="28" width="13.5714285714286" customWidth="1"/>
     <col min="29" max="29" width="20.8571428571429" customWidth="1"/>
     <col min="30" max="30" width="15.1428571428571" customWidth="1"/>
     <col min="31" max="31" width="21.8571428571429" customWidth="1"/>
@@ -1507,7 +1524,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1665,17 +1682,17 @@
       <c r="L2" t="s">
         <v>62</v>
       </c>
-      <c r="M2">
-        <v>15011998</v>
+      <c r="M2" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2">
         <v>7897454444</v>
@@ -1684,22 +1701,22 @@
         <v>7897454447</v>
       </c>
       <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
         <v>66</v>
       </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
-      </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X2">
         <v>2015</v>
       </c>
       <c r="Y2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2">
         <v>75</v>
@@ -1707,26 +1724,29 @@
       <c r="AA2">
         <v>3</v>
       </c>
+      <c r="AB2" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="AC2" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="AE2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="AG2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ2">
         <v>1234</v>
@@ -1777,15 +1797,15 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -1800,37 +1820,37 @@
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" s="6">
         <v>972042238147</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3">
-        <v>15011998</v>
+        <v>85</v>
+      </c>
+      <c r="M3" s="13">
+        <v>35882</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R3">
         <v>7897454445</v>
@@ -1839,19 +1859,19 @@
         <v>7897454448</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X3">
         <v>2016</v>
       </c>
       <c r="Y3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z3">
         <v>75</v>
@@ -1859,26 +1879,29 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>90</v>
+      <c r="AB3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ3">
         <v>1234</v>
@@ -1931,7 +1954,7 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -1946,34 +1969,34 @@
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K4" s="6">
         <v>597112896692</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4">
-        <v>15011998</v>
+        <v>100</v>
+      </c>
+      <c r="M4" s="13">
+        <v>35883</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R4">
         <v>5972896692</v>
@@ -1982,19 +2005,19 @@
         <v>5972896693</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="X4">
         <v>2017</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4">
         <v>75</v>
@@ -2002,26 +2025,29 @@
       <c r="AA4">
         <v>1</v>
       </c>
+      <c r="AB4" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="AC4" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AD4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="AG4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ4">
         <v>1234</v>
@@ -2070,6 +2096,11 @@
       </c>
       <c r="AY4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="27:27">
+      <c r="AA18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2260,16 +2291,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2322,16 +2353,16 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -2340,37 +2371,37 @@
         <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K2" s="6">
         <v>283596342664</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R2" s="3">
         <v>9986348159</v>
@@ -2379,28 +2410,28 @@
         <v>7985191734</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="V2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -2428,22 +2459,22 @@
         <v>2</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="11"/>
@@ -2473,16 +2504,16 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -2516,37 +2547,37 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AO4" s="3">
         <v>1234</v>
@@ -2573,16 +2604,16 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -2615,7 +2646,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="10"/>
       <c r="AG5" s="11"/>
@@ -2647,16 +2678,16 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -2689,7 +2720,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="11"/>
@@ -2720,16 +2751,16 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -2762,7 +2793,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="11"/>
@@ -2812,16 +2843,16 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -2855,37 +2886,37 @@
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AO8" s="3">
         <v>1234</v>

--- a/Data/TestData/EmployeeData.xlsx
+++ b/Data/TestData/EmployeeData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="147">
   <si>
     <t>testId</t>
   </si>
@@ -275,6 +275,9 @@
     <t>RMQIV7537T</t>
   </si>
   <si>
+    <t>27-MAR-1999</t>
+  </si>
+  <si>
     <t>651 Evan Fall, Rheaview - 37542, Nebraska, Botswana</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t>RMQIV3234T</t>
   </si>
   <si>
+    <t>27-MAR-2000</t>
+  </si>
+  <si>
     <t>830 Bosco Ville, North Fatimaborough - 62316-0810, Wisconsin, Tanzania</t>
   </si>
   <si>
@@ -356,6 +362,9 @@
     <t>employee_status</t>
   </si>
   <si>
+    <t>exit_date</t>
+  </si>
+  <si>
     <t>editemp_001</t>
   </si>
   <si>
@@ -441,6 +450,12 @@
   </si>
   <si>
     <t>editemp_007</t>
+  </si>
+  <si>
+    <t>TRAINEE TO EMPLOYEE</t>
+  </si>
+  <si>
+    <t>01-JAN-2020</t>
   </si>
 </sst>
 </file>
@@ -449,9 +464,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -504,13 +519,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -522,6 +530,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,9 +557,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,30 +618,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -597,21 +627,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +693,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,18 +759,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,24 +790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,6 +881,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,26 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -942,22 +957,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -966,128 +981,128 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1100,11 +1115,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,7 +1444,7 @@
   <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1518,7 +1535,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1682,7 +1699,7 @@
       <c r="L2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>63</v>
       </c>
       <c r="N2" t="s">
@@ -1724,7 +1741,7 @@
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="17" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="9" t="s">
@@ -1733,10 +1750,10 @@
       <c r="AD2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="15" t="s">
         <v>75</v>
       </c>
       <c r="AG2" t="s">
@@ -1837,20 +1854,20 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="13">
-        <v>35882</v>
+      <c r="M3" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R3">
         <v>7897454445</v>
@@ -1862,10 +1879,10 @@
         <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X3">
         <v>2016</v>
@@ -1879,19 +1896,19 @@
       <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AB3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AB3" s="17" t="s">
         <v>93</v>
       </c>
+      <c r="AC3" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="AD3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="15" t="s">
         <v>75</v>
       </c>
       <c r="AG3" t="s">
@@ -1954,7 +1971,7 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -1969,31 +1986,31 @@
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" s="6">
         <v>597112896692</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="13">
-        <v>35883</v>
+        <v>101</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
         <v>66</v>
@@ -2011,7 +2028,7 @@
         <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X4">
         <v>2017</v>
@@ -2025,19 +2042,19 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AB4" s="16" t="s">
-        <v>104</v>
+      <c r="AB4" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AD4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AF4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="AG4" t="s">
@@ -2100,7 +2117,7 @@
     </row>
     <row r="18" spans="27:27">
       <c r="AA18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2117,10 +2134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -2179,9 +2196,10 @@
     <col min="54" max="54" width="13.1428571428571" customWidth="1"/>
     <col min="55" max="55" width="5.57142857142857" customWidth="1"/>
     <col min="56" max="56" width="14.7142857142857" customWidth="1"/>
+    <col min="57" max="57" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:56">
+    <row r="1" s="1" customFormat="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -2291,16 +2309,16 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>35</v>
@@ -2349,20 +2367,23 @@
       </c>
       <c r="BD1" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -2371,37 +2392,37 @@
         <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K2" s="6">
         <v>283596342664</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
         <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R2" s="3">
         <v>9986348159</v>
@@ -2413,25 +2434,25 @@
         <v>67</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -2459,22 +2480,22 @@
         <v>2</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="11"/>
@@ -2504,16 +2525,16 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -2547,13 +2568,13 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>75</v>
@@ -2565,19 +2586,19 @@
         <v>77</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO4" s="3">
         <v>1234</v>
@@ -2604,16 +2625,16 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -2678,16 +2699,16 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -2720,7 +2741,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="11"/>
@@ -2751,16 +2772,16 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -2793,7 +2814,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="11"/>
@@ -2841,18 +2862,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -2886,13 +2907,13 @@
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>75</v>
@@ -2904,19 +2925,19 @@
         <v>77</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>136</v>
+      <c r="AN8" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="AO8" s="3">
         <v>1234</v>
@@ -2940,6 +2961,9 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
+      <c r="BE8" s="18" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
